--- a/instruction_list.xlsx
+++ b/instruction_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katshun/Box Sync/first_term/experiment/simple/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90197B59-4AF4-174B-9003-B0380C5D93FC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEE1598-281F-FC4B-9965-1C0259D2EB57}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="440" windowWidth="27540" windowHeight="17060" xr2:uid="{E9E8C3B6-0274-9149-A37A-02E65FC04093}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="87">
   <si>
     <t>タイプ</t>
   </si>
@@ -361,10 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bug</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -374,6 +370,25 @@
   </si>
   <si>
     <t>working</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張命令</t>
+    <rPh sb="0" eb="2">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADDI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUZ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -459,11 +474,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,11 +796,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1432B6C-969B-E24E-8568-92284E2AF45C}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -856,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
@@ -908,7 +923,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>37</v>
@@ -960,7 +975,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
@@ -1012,7 +1027,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
@@ -1064,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -1116,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
@@ -1168,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
@@ -1189,7 +1204,7 @@
         <v>77</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>67</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -1220,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
@@ -1272,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>41</v>
@@ -1324,7 +1339,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
@@ -1376,7 +1391,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
@@ -1428,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>42</v>
@@ -1480,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>42</v>
@@ -1529,8 +1544,8 @@
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>83</v>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>42</v>
@@ -1576,7 +1591,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>45</v>
@@ -1590,10 +1605,10 @@
       <c r="F16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="4"/>
+      <c r="G16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1622,7 +1637,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>46</v>
@@ -1636,10 +1651,10 @@
       <c r="F17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="4"/>
+      <c r="G17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1668,7 +1683,7 @@
         <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>50</v>
@@ -1682,10 +1697,10 @@
       <c r="F18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="4"/>
+      <c r="G18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
         <v>6</v>
@@ -1720,7 +1735,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>51</v>
@@ -1734,10 +1749,10 @@
       <c r="F19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="G19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1766,7 +1781,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>52</v>
@@ -1780,10 +1795,10 @@
       <c r="F20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="4"/>
+      <c r="G20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1812,7 +1827,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>52</v>
@@ -1826,10 +1841,10 @@
       <c r="F21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="4"/>
+      <c r="G21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1858,7 +1873,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>52</v>
@@ -1872,10 +1887,10 @@
       <c r="F22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="4"/>
+      <c r="G22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="5"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1904,7 +1919,7 @@
         <v>58</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>52</v>
@@ -1918,10 +1933,10 @@
       <c r="F23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="G23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1946,9 +1961,13 @@
       </c>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1960,9 +1979,12 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1974,9 +1996,13 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>

--- a/instruction_list.xlsx
+++ b/instruction_list.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katshun/Box Sync/first_term/experiment/simple/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90197B59-4AF4-174B-9003-B0380C5D93FC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="27430"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="440" windowWidth="27540" windowHeight="17060" xr2:uid="{E9E8C3B6-0274-9149-A37A-02E65FC04093}"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="27240" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -92,9 +89,6 @@
     <t>OUT</t>
   </si>
   <si>
-    <t>HLT</t>
-  </si>
-  <si>
     <t>0000</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -376,12 +370,16 @@
     <t>working</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>HLT</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -416,25 +414,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -459,11 +457,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -577,7 +575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -771,28 +769,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1432B6C-969B-E24E-8568-92284E2AF45C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="10.625" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="6" width="10.7109375" style="1"/>
-    <col min="9" max="9" width="32.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="4" max="6" width="10.625" style="1"/>
+    <col min="9" max="9" width="32.125" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -800,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -821,34 +819,34 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -856,39 +854,39 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>4</v>
@@ -897,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -908,39 +906,39 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>4</v>
@@ -949,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -960,39 +958,39 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>4</v>
@@ -1001,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1012,39 +1010,39 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>4</v>
@@ -1053,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1064,39 +1062,39 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>4</v>
@@ -1105,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1116,51 +1114,51 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2">
         <v>0</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1168,39 +1166,39 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="5" t="s">
-        <v>67</v>
+      <c r="J8" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>4</v>
@@ -1209,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1220,39 +1218,39 @@
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>4</v>
@@ -1261,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1272,39 +1270,39 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>4</v>
@@ -1313,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1324,39 +1322,39 @@
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2">
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>4</v>
@@ -1365,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1376,39 +1374,39 @@
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2">
         <v>11</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>4</v>
@@ -1417,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1428,39 +1426,39 @@
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2">
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>4</v>
@@ -1469,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1480,129 +1478,129 @@
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2">
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2">
         <v>0</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>4</v>
@@ -1611,96 +1609,96 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2">
         <v>0</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="5"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>4</v>
@@ -1709,240 +1707,240 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2">
         <v>100</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="5"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="5"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2">
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="5"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2">
         <v>1</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="5"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2">
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2056,6 +2054,11 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>